--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -874,7 +874,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -896,7 +896,7 @@
     <t>InsurancePlan.coverageArea</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -1285,7 +1285,7 @@
     <t>InsurancePlan.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1301,7 +1301,7 @@
     <t>InsurancePlan.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,879 +632,495 @@
     <t>.scopes[Role](classCode=IDENT)</t>
   </si>
   <si>
-    <t>InsurancePlan.identifier.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>InsurancePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The current state of the health insurance product.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>Default interpretation is active.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.type</t>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>InsurancePlan.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.period</t>
+    <t>Product Type</t>
+  </si>
+  <si>
+    <t>The kind of health insurance product.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/InsuranceProductTypeVS</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>InsurancePlan.name</t>
+  </si>
+  <si>
+    <t>Official name</t>
+  </si>
+  <si>
+    <t>Official name of the health insurance product as designated by the owner.</t>
+  </si>
+  <si>
+    <t>If the name of the product/plan changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>InsurancePlan.alias</t>
+  </si>
+  <si>
+    <t>Alternate names</t>
+  </si>
+  <si>
+    <t>A list of alternate names that the product is known as, or was known as in the past.</t>
+  </si>
+  <si>
+    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the product/plan.</t>
+  </si>
+  <si>
+    <t>Over time products/plans go through many changes and can be known by different names.
+For searching knowing previous names that the product/plan was known by can be very useful.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>InsurancePlan.identifier.assigner</t>
+    <t>When the product is available</t>
+  </si>
+  <si>
+    <t>The period of time that the health insurance product is available.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.ownedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payer
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
+  </si>
+  <si>
+    <t>Plan issuer</t>
+  </si>
+  <si>
+    <t>The entity that is providing  the health insurance product and underwriting the risk.  This is typically an insurance carriers, other third-party payers, or health plan sponsors comonly referred to as 'payers'.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.administeredBy</t>
+  </si>
+  <si>
+    <t>Product administrator</t>
+  </si>
+  <si>
+    <t>An organization which administer other services such as underwriting, customer service and/or claims processing on behalf of the health insurance product owner.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverageArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+</t>
+  </si>
+  <si>
+    <t>Where product applies</t>
+  </si>
+  <si>
+    <t>The geographic region in which a health insurance product's benefits apply.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Contact for the product</t>
+  </si>
+  <si>
+    <t>The contact for the health insurance product for a certain purpose.</t>
+  </si>
+  <si>
+    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
+  </si>
+  <si>
+    <t>Need to keep track of assigned contact points within bigger organization.</t>
+  </si>
+  <si>
+    <t>.contactParty</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.purpose</t>
+  </si>
+  <si>
+    <t>The type of contact</t>
+  </si>
+  <si>
+    <t>Indicates a purpose for which the contact can be reached.</t>
+  </si>
+  <si>
+    <t>Need to distinguish between multiple contact persons.</t>
+  </si>
+  <si>
+    <t>The purpose for which you would contact a contact party.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+  </si>
+  <si>
+    <t>./type</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HumanName
+</t>
+  </si>
+  <si>
+    <t>A name associated with the contact</t>
+  </si>
+  <si>
+    <t>A name associated with the contact.</t>
+  </si>
+  <si>
+    <t>Need to be able to track the person by name.</t>
+  </si>
+  <si>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contact details (telephone, email, etc.)  for a contact</t>
+  </si>
+  <si>
+    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
+  </si>
+  <si>
+    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
+  </si>
+  <si>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>InsurancePlan.contact.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address
+</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact</t>
+  </si>
+  <si>
+    <t>Visiting or postal addresses for the contact.</t>
+  </si>
+  <si>
+    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
+  </si>
+  <si>
+    <t>./addr</t>
+  </si>
+  <si>
+    <t>InsurancePlan.endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+</t>
+  </si>
+  <si>
+    <t>Technical endpoint</t>
+  </si>
+  <si>
+    <t>The technical endpoints providing access to services operated for the health insurance product.</t>
+  </si>
+  <si>
+    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
+</t>
+  </si>
+  <si>
+    <t>What networks are Included</t>
+  </si>
+  <si>
+    <t>Reference to the network included in the health insurance product.</t>
+  </si>
+  <si>
+    <t>Networks are represented as a hierarchy of organization resources.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage</t>
+  </si>
+  <si>
+    <t>Coverage details</t>
+  </si>
+  <si>
+    <t>Details about the coverage offered by the insurance product.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.type</t>
+  </si>
+  <si>
+    <t>Type of coverage</t>
+  </si>
+  <si>
+    <t>Type of coverage  (Medical; Dental; Mental Health; Substance Abuse; Vision; Drug; Short Term; Long Term Care; Hospice; Home Health).</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.network</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>InsurancePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The current state of the health insurance product.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
-  </si>
-  <si>
-    <t>Default interpretation is active.</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>InsurancePlan.type</t>
-  </si>
-  <si>
-    <t>Product Type</t>
-  </si>
-  <si>
-    <t>The kind of health insurance product.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/InsuranceProductTypeVS</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>InsurancePlan.name</t>
-  </si>
-  <si>
-    <t>Official name</t>
-  </si>
-  <si>
-    <t>Official name of the health insurance product as designated by the owner.</t>
-  </si>
-  <si>
-    <t>If the name of the product/plan changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>InsurancePlan.alias</t>
-  </si>
-  <si>
-    <t>Alternate names</t>
-  </si>
-  <si>
-    <t>A list of alternate names that the product is known as, or was known as in the past.</t>
-  </si>
-  <si>
-    <t>There are no dates associated with the alias/historic names, as this is not intended to track when names were used, but to assist in searching so that older names can still result in identifying the product/plan.</t>
-  </si>
-  <si>
-    <t>Over time products/plans go through many changes and can be known by different names.
-For searching knowing previous names that the product/plan was known by can be very useful.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.period</t>
-  </si>
-  <si>
-    <t>When the product is available</t>
-  </si>
-  <si>
-    <t>The period of time that the health insurance product is available.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.ownedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payer
+    <t>What networks provide coverage</t>
+  </si>
+  <si>
+    <t>Reference to the network that providing the type of coverage.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit</t>
+  </si>
+  <si>
+    <t>List of benefits</t>
+  </si>
+  <si>
+    <t>Specific benefits under this type of coverage.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.type</t>
+  </si>
+  <si>
+    <t>Type of benefit</t>
+  </si>
+  <si>
+    <t>Type of benefit (primary care; speciality care; inpatient; outpatient).</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.requirement</t>
+  </si>
+  <si>
+    <t>Referral requirements</t>
+  </si>
+  <si>
+    <t>The referral requirements to have access/coverage for this benefit.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit</t>
+  </si>
+  <si>
+    <t>Benefit limits</t>
+  </si>
+  <si>
+    <t>The specific limits on the benefit.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
-</t>
-  </si>
-  <si>
-    <t>Plan issuer</t>
-  </si>
-  <si>
-    <t>The entity that is providing  the health insurance product and underwriting the risk.  This is typically an insurance carriers, other third-party payers, or health plan sponsors comonly referred to as 'payers'.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.administeredBy</t>
-  </si>
-  <si>
-    <t>Product administrator</t>
-  </si>
-  <si>
-    <t>An organization which administer other services such as underwriting, customer service and/or claims processing on behalf of the health insurance product owner.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverageArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
-</t>
-  </si>
-  <si>
-    <t>Where product applies</t>
-  </si>
-  <si>
-    <t>The geographic region in which a health insurance product's benefits apply.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Contact for the product</t>
-  </si>
-  <si>
-    <t>The contact for the health insurance product for a certain purpose.</t>
-  </si>
-  <si>
-    <t>Where multiple contacts for the same purpose are provided there is a standard extension that can be used to determine which one is the preferred contact to use.</t>
-  </si>
-  <si>
-    <t>Need to keep track of assigned contact points within bigger organization.</t>
-  </si>
-  <si>
-    <t>.contactParty</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.purpose</t>
-  </si>
-  <si>
-    <t>The type of contact</t>
-  </si>
-  <si>
-    <t>Indicates a purpose for which the contact can be reached.</t>
-  </si>
-  <si>
-    <t>Need to distinguish between multiple contact persons.</t>
-  </si>
-  <si>
-    <t>The purpose for which you would contact a contact party.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
-  </si>
-  <si>
-    <t>./type</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HumanName
-</t>
-  </si>
-  <si>
-    <t>A name associated with the contact</t>
-  </si>
-  <si>
-    <t>A name associated with the contact.</t>
-  </si>
-  <si>
-    <t>Need to be able to track the person by name.</t>
-  </si>
-  <si>
-    <t>./name</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>./formatted</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surname
-</t>
-  </si>
-  <si>
-    <t>Family name (often called 'Surname')</t>
-  </si>
-  <si>
-    <t>The part of a name that links to the genealogy. In some cultures (e.g. Eritrea) the family name of a son is the first name of his father.</t>
-  </si>
-  <si>
-    <t>Family Name may be decomposed into specific parts using extensions (de, nl, es related cultures).</t>
-  </si>
-  <si>
-    <t>HumanName.family</t>
-  </si>
-  <si>
-    <t>./part[partType = FAM]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.given</t>
-  </si>
-  <si>
-    <t>first name
-middle name</t>
-  </si>
-  <si>
-    <t>Given names (not always 'first'). Includes middle names</t>
-  </si>
-  <si>
-    <t>Given name.</t>
-  </si>
-  <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
-  </si>
-  <si>
-    <t>HumanName.given</t>
-  </si>
-  <si>
-    <t>./part[partType = GIV]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.prefix</t>
-  </si>
-  <si>
-    <t>Parts that come before the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the start of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.prefix</t>
-  </si>
-  <si>
-    <t>./part[partType = PFX]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.suffix</t>
-  </si>
-  <si>
-    <t>Parts that come after the name</t>
-  </si>
-  <si>
-    <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
-  </si>
-  <si>
-    <t>HumanName.suffix</t>
-  </si>
-  <si>
-    <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.name.period</t>
-  </si>
-  <si>
-    <t>Time period when name was/is in use</t>
-  </si>
-  <si>
-    <t>Indicates the period of time when this name was valid for the named person.</t>
-  </si>
-  <si>
-    <t>Allows names to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>HumanName.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contact details (telephone, email, etc.)  for a contact</t>
-  </si>
-  <si>
-    <t>A contact detail (e.g. a telephone number or an email address) by which the party may be contacted.</t>
-  </si>
-  <si>
-    <t>People have (primary) ways to contact them in some way such as phone, email.</t>
-  </si>
-  <si>
-    <t>./telecom</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.rank</t>
+    <t>Maximum value allowed</t>
+  </si>
+  <si>
+    <t>The maximum amount of a service item a plan will pay for a covered benefit.  For examples. wellness visits, or eyeglasses.</t>
+  </si>
+  <si>
+    <t>May also be called “eligible expense,” “payment allowance,” or “negotiated rate.”.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.coverage.benefit.limit.code</t>
+  </si>
+  <si>
+    <t>Benefit limit details</t>
+  </si>
+  <si>
+    <t>The specific limit on the benefit.</t>
+  </si>
+  <si>
+    <t>Use `CodeableConcept.text` element if the data is free (uncoded) text.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan</t>
+  </si>
+  <si>
+    <t>Cost sharing details for the plan</t>
+  </si>
+  <si>
+    <t>Details about an insurance plan.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.identifier</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this health insurance plan which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.type</t>
+  </si>
+  <si>
+    <t>Categorization of the cost sharing for the plan</t>
+  </si>
+  <si>
+    <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/InsurancePlanTypeVS</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.coverageArea</t>
+  </si>
+  <si>
+    <t>The geographic region in which a health insurance plan's benefits apply.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.network</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost</t>
+  </si>
+  <si>
+    <t>Overall costs</t>
+  </si>
+  <si>
+    <t>Overall costs associated with the plan.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.id</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.extension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.modifierExtension</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.type</t>
+  </si>
+  <si>
+    <t>Type of cost</t>
+  </si>
+  <si>
+    <t>Type of cost.</t>
+  </si>
+  <si>
+    <t>InsurancePlan.plan.generalCost.groupSize</t>
   </si>
   <si>
     <t xml:space="preserve">positiveInt
 </t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>InsurancePlan.contact.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address
-</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact</t>
-  </si>
-  <si>
-    <t>Visiting or postal addresses for the contact.</t>
-  </si>
-  <si>
-    <t>May need to keep track of a contact party's address for contacting, billing or reporting requirements.</t>
-  </si>
-  <si>
-    <t>./addr</t>
-  </si>
-  <si>
-    <t>InsurancePlan.endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
-</t>
-  </si>
-  <si>
-    <t>Technical endpoint</t>
-  </si>
-  <si>
-    <t>The technical endpoints providing access to services operated for the health insurance product.</t>
-  </si>
-  <si>
-    <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
-</t>
-  </si>
-  <si>
-    <t>What networks are Included</t>
-  </si>
-  <si>
-    <t>Reference to the network included in the health insurance product.</t>
-  </si>
-  <si>
-    <t>Networks are represented as a hierarchy of organization resources.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage</t>
-  </si>
-  <si>
-    <t>Coverage details</t>
-  </si>
-  <si>
-    <t>Details about the coverage offered by the insurance product.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.type</t>
-  </si>
-  <si>
-    <t>Type of coverage</t>
-  </si>
-  <si>
-    <t>Type of coverage  (Medical; Dental; Mental Health; Substance Abuse; Vision; Drug; Short Term; Long Term Care; Hospice; Home Health).</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.network</t>
-  </si>
-  <si>
-    <t>What networks provide coverage</t>
-  </si>
-  <si>
-    <t>Reference to the network that providing the type of coverage.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit</t>
-  </si>
-  <si>
-    <t>List of benefits</t>
-  </si>
-  <si>
-    <t>Specific benefits under this type of coverage.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.type</t>
-  </si>
-  <si>
-    <t>Type of benefit</t>
-  </si>
-  <si>
-    <t>Type of benefit (primary care; speciality care; inpatient; outpatient).</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.requirement</t>
-  </si>
-  <si>
-    <t>Referral requirements</t>
-  </si>
-  <si>
-    <t>The referral requirements to have access/coverage for this benefit.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit</t>
-  </si>
-  <si>
-    <t>Benefit limits</t>
-  </si>
-  <si>
-    <t>The specific limits on the benefit.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
-  </si>
-  <si>
-    <t>Maximum value allowed</t>
-  </si>
-  <si>
-    <t>The maximum amount of a service item a plan will pay for a covered benefit.  For examples. wellness visits, or eyeglasses.</t>
-  </si>
-  <si>
-    <t>May also be called “eligible expense,” “payment allowance,” or “negotiated rate.”.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.coverage.benefit.limit.code</t>
-  </si>
-  <si>
-    <t>Benefit limit details</t>
-  </si>
-  <si>
-    <t>The specific limit on the benefit.</t>
-  </si>
-  <si>
-    <t>Use `CodeableConcept.text` element if the data is free (uncoded) text.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan</t>
-  </si>
-  <si>
-    <t>Cost sharing details for the plan</t>
-  </si>
-  <si>
-    <t>Details about an insurance plan.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.identifier</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this health insurance plan which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.type</t>
-  </si>
-  <si>
-    <t>Categorization of the cost sharing for the plan</t>
-  </si>
-  <si>
-    <t>Type of plan. For example, "Platinum" or "High Deductable".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/InsurancePlanTypeVS</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.coverageArea</t>
-  </si>
-  <si>
-    <t>The geographic region in which a health insurance plan's benefits apply.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.network</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost</t>
-  </si>
-  <si>
-    <t>Overall costs</t>
-  </si>
-  <si>
-    <t>Overall costs associated with the plan.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.id</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.extension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.modifierExtension</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.type</t>
-  </si>
-  <si>
-    <t>Type of cost</t>
-  </si>
-  <si>
-    <t>Type of cost.</t>
-  </si>
-  <si>
-    <t>InsurancePlan.plan.generalCost.groupSize</t>
   </si>
   <si>
     <t>Number of enrollees</t>
@@ -1963,7 +1579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK113"/>
+  <dimension ref="A1:AK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2008,7 +1624,7 @@
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4018,7 +3634,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>82</v>
@@ -4027,28 +3643,32 @@
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="N20" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>74</v>
@@ -4066,13 +3686,13 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -4090,7 +3710,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4102,51 +3722,49 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>99</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -4171,31 +3789,29 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4207,18 +3823,18 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>99</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4235,26 +3851,24 @@
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -4278,13 +3892,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -4302,7 +3916,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4311,7 +3925,7 @@
         <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>94</v>
@@ -4320,12 +3934,12 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4336,31 +3950,31 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4385,13 +3999,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4409,13 +4023,13 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -4427,12 +4041,12 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4452,23 +4066,19 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4480,7 +4090,7 @@
         <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>74</v>
@@ -4534,26 +4144,26 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4562,17 +4172,15 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4585,7 +4193,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>230</v>
+        <v>74</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -4621,7 +4229,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4639,10 +4247,10 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>233</v>
       </c>
@@ -4652,13 +4260,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4667,13 +4275,13 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4724,7 +4332,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4742,12 +4350,12 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4758,10 +4366,10 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4770,17 +4378,15 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4829,13 +4435,13 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4847,12 +4453,12 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4860,41 +4466,41 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P28" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>74</v>
@@ -4912,13 +4518,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>252</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4936,13 +4542,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4951,15 +4557,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4967,28 +4573,28 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>210</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>256</v>
+        <v>96</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5015,11 +4621,13 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>74</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -5037,62 +4645,62 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5142,34 +4750,34 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>265</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5179,28 +4787,28 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>105</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5249,7 +4857,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5261,18 +4869,18 @@
         <v>74</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>265</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5286,7 +4894,7 @@
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5295,16 +4903,18 @@
         <v>74</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -5328,13 +4938,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>258</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5352,7 +4962,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5370,44 +4980,46 @@
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>74</v>
       </c>
@@ -5455,7 +5067,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5473,12 +5085,12 @@
         <v>74</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5486,31 +5098,33 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>74</v>
       </c>
@@ -5558,13 +5172,13 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
@@ -5576,12 +5190,12 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5592,28 +5206,30 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5661,13 +5277,13 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
@@ -5679,12 +5295,12 @@
         <v>74</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5698,7 +5314,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
@@ -5707,19 +5323,17 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5768,7 +5382,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5786,12 +5400,12 @@
         <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>292</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5802,7 +5416,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5814,15 +5428,17 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5871,34 +5487,34 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5917,17 +5533,15 @@
         <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>290</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5976,7 +5590,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>109</v>
+        <v>289</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5988,54 +5602,50 @@
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -6083,41 +5693,41 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
@@ -6129,18 +5739,18 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -6164,13 +5774,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>304</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -6188,63 +5798,65 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>306</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I41" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>311</v>
+        <v>188</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6293,30 +5905,30 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>312</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6324,7 +5936,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>82</v>
@@ -6339,13 +5951,13 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6396,10 +6008,10 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>82</v>
@@ -6408,22 +6020,22 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6433,7 +6045,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6442,16 +6054,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>301</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6489,19 +6101,19 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>109</v>
+        <v>298</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6513,18 +6125,18 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6532,35 +6144,31 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6584,13 +6192,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6608,13 +6216,13 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6626,12 +6234,12 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6645,29 +6253,25 @@
         <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>96</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6715,7 +6319,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6727,29 +6331,29 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>330</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>332</v>
+        <v>101</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>74</v>
@@ -6758,19 +6362,19 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>104</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>335</v>
+        <v>105</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6820,34 +6424,34 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>109</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>339</v>
+        <v>250</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6860,24 +6464,26 @@
         <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>340</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>341</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6925,7 +6531,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6937,18 +6543,18 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>344</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6956,10 +6562,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6968,16 +6574,16 @@
         <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7028,13 +6634,13 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
@@ -7046,12 +6652,12 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>349</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7062,7 +6668,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -7071,16 +6677,16 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7131,13 +6737,13 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
@@ -7149,12 +6755,12 @@
         <v>74</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7165,7 +6771,7 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7174,21 +6780,19 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" t="s" s="2">
-        <v>358</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
       </c>
@@ -7236,13 +6840,13 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7254,12 +6858,12 @@
         <v>74</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7270,10 +6874,10 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7282,18 +6886,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>362</v>
+        <v>84</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>363</v>
+        <v>96</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7341,41 +6943,41 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>361</v>
+        <v>98</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>366</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>74</v>
@@ -7387,15 +6989,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7444,19 +7048,19 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>74</v>
@@ -7467,11 +7071,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7484,24 +7088,26 @@
         <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>251</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
       </c>
@@ -7537,19 +7143,19 @@
         <v>74</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7567,12 +7173,12 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>320</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7586,24 +7192,26 @@
         <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7628,13 +7236,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>373</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7652,7 +7260,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>374</v>
+        <v>320</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7661,7 +7269,7 @@
         <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>375</v>
+        <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>94</v>
@@ -7670,12 +7278,12 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>376</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7689,29 +7297,27 @@
         <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7759,7 +7365,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>382</v>
+        <v>325</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7777,12 +7383,12 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7793,32 +7399,28 @@
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>158</v>
+        <v>241</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7842,13 +7444,13 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>74</v>
@@ -7866,13 +7468,13 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>391</v>
+        <v>329</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
@@ -7884,12 +7486,12 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>323</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>392</v>
+        <v>332</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7909,20 +7511,18 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>393</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>394</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7971,7 +7571,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>397</v>
+        <v>98</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7983,7 +7583,7 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
@@ -7994,18 +7594,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -8014,18 +7614,20 @@
         <v>74</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>234</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -8074,63 +7676,65 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>401</v>
+        <v>109</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>360</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>402</v>
+        <v>334</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>403</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>404</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N59" t="s" s="2">
-        <v>406</v>
+        <v>188</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
@@ -8179,30 +7783,30 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>402</v>
+        <v>253</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>407</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8216,27 +7820,25 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>409</v>
+        <v>191</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>410</v>
+        <v>192</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
       </c>
@@ -8284,7 +7886,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8299,15 +7901,15 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>99</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8318,10 +7920,10 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>74</v>
@@ -8330,17 +7932,15 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>415</v>
+        <v>338</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8365,13 +7965,11 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8389,13 +7987,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>413</v>
+        <v>337</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8412,7 +8010,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8432,16 +8030,16 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>419</v>
+        <v>238</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>420</v>
+        <v>342</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8492,7 +8090,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>418</v>
+        <v>341</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8515,7 +8113,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>421</v>
+        <v>343</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8526,7 +8124,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8538,15 +8136,17 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>84</v>
+        <v>285</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>96</v>
+        <v>300</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8595,34 +8195,34 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>344</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8641,17 +8241,15 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>345</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8700,7 +8298,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>109</v>
+        <v>344</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8712,54 +8310,50 @@
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8807,41 +8401,41 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>74</v>
@@ -8853,15 +8447,17 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>425</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -8910,34 +8506,34 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>424</v>
+        <v>109</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>427</v>
+        <v>349</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8950,24 +8546,26 @@
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>428</v>
+        <v>251</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>429</v>
+        <v>252</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -9015,7 +8613,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>427</v>
+        <v>253</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9027,18 +8625,18 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9046,11 +8644,11 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
       </c>
@@ -9061,13 +8659,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>431</v>
+        <v>351</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>352</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9118,13 +8716,13 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>430</v>
+        <v>350</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG68" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -9141,7 +8739,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>433</v>
+        <v>353</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9164,13 +8762,13 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>354</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>97</v>
+        <v>356</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9221,7 +8819,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>98</v>
+        <v>353</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9233,29 +8831,29 @@
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>434</v>
+        <v>357</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9267,17 +8865,15 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>103</v>
+        <v>359</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9326,66 +8922,62 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>109</v>
+        <v>357</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>297</v>
+        <v>362</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9433,30 +9025,30 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9464,10 +9056,10 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
@@ -9479,13 +9071,13 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>437</v>
+        <v>365</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>366</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9536,13 +9128,13 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>436</v>
+        <v>364</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
@@ -9559,7 +9151,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>439</v>
+        <v>367</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9585,10 +9177,10 @@
         <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>440</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>441</v>
+        <v>97</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9639,7 +9231,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>439</v>
+        <v>98</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9651,22 +9243,22 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9685,15 +9277,17 @@
         <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>443</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9742,7 +9336,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>442</v>
+        <v>109</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9754,50 +9348,54 @@
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>369</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>96</v>
+        <v>251</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9845,41 +9443,41 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>446</v>
+        <v>370</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>74</v>
@@ -9891,17 +9489,15 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>103</v>
+        <v>371</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>74</v>
@@ -9950,34 +9546,34 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>109</v>
+        <v>370</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9990,26 +9586,22 @@
         <v>74</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>74</v>
       </c>
@@ -10057,7 +9649,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>299</v>
+        <v>373</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10069,18 +9661,18 @@
         <v>74</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>448</v>
+        <v>376</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10103,17 +9695,15 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>449</v>
+        <v>84</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>450</v>
+        <v>96</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10162,7 +9752,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>448</v>
+        <v>98</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10174,29 +9764,29 @@
         <v>74</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>377</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>74</v>
@@ -10208,16 +9798,16 @@
         <v>74</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>454</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>455</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>456</v>
+        <v>105</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
@@ -10267,34 +9857,34 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>453</v>
+        <v>109</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10307,22 +9897,26 @@
         <v>74</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>287</v>
+        <v>102</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>458</v>
+        <v>251</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>74</v>
       </c>
@@ -10370,7 +9964,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10382,18 +9976,18 @@
         <v>74</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>460</v>
+        <v>379</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10401,7 +9995,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>82</v>
@@ -10416,13 +10010,13 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>96</v>
+        <v>380</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>97</v>
+        <v>381</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10473,10 +10067,10 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>98</v>
+        <v>379</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>82</v>
@@ -10485,22 +10079,22 @@
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>461</v>
+        <v>382</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10519,17 +10113,15 @@
         <v>74</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>383</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>74</v>
@@ -10578,7 +10170,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>109</v>
+        <v>382</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>75</v>
@@ -10590,54 +10182,50 @@
         <v>74</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>462</v>
+        <v>385</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>297</v>
+        <v>96</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>74</v>
       </c>
@@ -10685,34 +10273,34 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>463</v>
+        <v>386</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10728,18 +10316,20 @@
         <v>74</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>74</v>
@@ -10788,7 +10378,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>463</v>
+        <v>109</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -10800,50 +10390,54 @@
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>196</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>465</v>
+        <v>387</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H85" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H85" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I85" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>466</v>
+        <v>251</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
       </c>
@@ -10867,11 +10461,13 @@
         <v>74</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X85" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y85" t="s" s="2">
-        <v>468</v>
+        <v>74</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>74</v>
@@ -10889,30 +10485,30 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>465</v>
+        <v>253</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10920,28 +10516,28 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>284</v>
+        <v>351</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10992,13 +10588,13 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>469</v>
+        <v>388</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>74</v>
@@ -11015,7 +10611,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11026,7 +10622,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>74</v>
@@ -11038,17 +10634,15 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>428</v>
+        <v>391</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -11073,13 +10667,13 @@
         <v>74</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>74</v>
+        <v>394</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>74</v>
@@ -11097,13 +10691,13 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>471</v>
+        <v>390</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
@@ -11120,7 +10714,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11143,13 +10737,13 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>473</v>
+        <v>396</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>474</v>
+        <v>397</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11200,7 +10794,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11223,7 +10817,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>475</v>
+        <v>398</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11246,13 +10840,13 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11303,7 +10897,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11315,2513 +10909,17 @@
         <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK113" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK113">
+  <autoFilter ref="A1:AK89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13831,7 +10929,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3521,7 +3521,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>190</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>74</v>
@@ -3832,7 +3832,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>214</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4147,7 +4147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>228</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>74</v>
@@ -4353,7 +4353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>236</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -5403,7 +5403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>284</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
@@ -6552,7 +6552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>308</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>82</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>74</v>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1588,10 +1588,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1607,24 +1607,24 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.7421875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.74609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="51.7109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="29.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.65625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-InsurancePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
